--- a/jpcore-r4/feature/medication-operation/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/medication-operation/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T01:43:53+00:00</t>
+    <t>2024-07-17T02:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/medication-operation/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/medication-operation/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T02:30:57+00:00</t>
+    <t>2024-07-17T03:06:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/medication-operation/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/medication-operation/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T03:06:34+00:00</t>
+    <t>2024-07-17T03:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
